--- a/Class/ScoreVSGradeABCDF.xlsx
+++ b/Class/ScoreVSGradeABCDF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mehak/Documents/GitHub/2023_Winter_CSC_CIS_5/Class/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66769E9-76CE-BD4E-A7B7-FAC2E5489F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BA7107-3D0A-6B41-B3CD-C006F9285B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="500" windowWidth="24040" windowHeight="16940" xr2:uid="{74E5C96C-77AC-824C-81C3-874018A453A3}"/>
+    <workbookView xWindow="13440" yWindow="7440" windowWidth="15140" windowHeight="10560" xr2:uid="{74E5C96C-77AC-824C-81C3-874018A453A3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -138,9 +138,6 @@
     <t>!(x||y)</t>
   </si>
   <si>
-    <t>!x&amp;&amp;y!y</t>
-  </si>
-  <si>
     <t>!(x&amp;&amp;y)</t>
   </si>
   <si>
@@ -148,6 +145,9 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>!x&amp;&amp;!y</t>
   </si>
 </sst>
 </file>
@@ -517,10 +517,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27438A8-34B2-C840-AE92-CC273ACA0D59}">
   <dimension ref="A2:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="135" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
       <selection activeCell="A5" sqref="A5"/>
-      <selection pane="topRight" activeCell="D23" sqref="D23"/>
+      <selection pane="topRight" activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,13 +671,13 @@
         <v>25</v>
       </c>
       <c r="Y11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z11" t="s">
         <v>26</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="AA11" t="s">
         <v>27</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
@@ -716,10 +716,10 @@
       <c r="I13" s="5"/>
       <c r="J13" s="3"/>
       <c r="O13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Q13" t="s">
         <v>6</v>
@@ -728,19 +728,19 @@
         <v>6</v>
       </c>
       <c r="S13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U13" t="s">
         <v>6</v>
       </c>
       <c r="V13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X13" t="s">
         <v>6</v>
@@ -764,7 +764,7 @@
         <v>98</v>
       </c>
       <c r="D14" s="1" t="str">
-        <f t="shared" ref="D13:D31" si="0">IF(C14&gt;=C6,"A",IF(C14&gt;=C7,"B",IF(C14&gt;=C8,"C",IF(C14&gt;=C9,"D","F"))))</f>
+        <f t="shared" ref="D14:D31" si="0">IF(C14&gt;=C6,"A",IF(C14&gt;=C7,"B",IF(C14&gt;=C8,"C",IF(C14&gt;=C9,"D","F"))))</f>
         <v>A</v>
       </c>
       <c r="E14" s="1"/>
@@ -774,7 +774,7 @@
       <c r="I14" s="5"/>
       <c r="J14" s="3"/>
       <c r="O14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P14" t="s">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>6</v>
       </c>
       <c r="R14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T14" t="s">
         <v>6</v>
       </c>
       <c r="U14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="V14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W14" t="s">
         <v>6</v>
@@ -807,10 +807,10 @@
         <v>6</v>
       </c>
       <c r="Z14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -834,16 +834,16 @@
         <v>6</v>
       </c>
       <c r="P15" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="Q15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R15" t="s">
         <v>6</v>
       </c>
       <c r="S15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="T15" t="s">
         <v>6</v>
@@ -855,7 +855,7 @@
         <v>6</v>
       </c>
       <c r="W15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="X15" t="s">
         <v>6</v>
@@ -864,10 +864,10 @@
         <v>6</v>
       </c>
       <c r="Z15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
@@ -894,10 +894,10 @@
         <v>6</v>
       </c>
       <c r="Q16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="S16" t="s">
         <v>6</v>
@@ -915,16 +915,16 @@
         <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Y16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
